--- a/examples/wangetal2018/out/NetworkFiles/AC_1.0_b_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_1.0_b_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>pipe_name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05</t>
+    <t>PI05_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI05_remaining</t>
   </si>
   <si>
     <t>PI06</t>
@@ -99,6 +102,9 @@
     <t>N05</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -120,6 +126,9 @@
     <t>N_pre_C_1_0</t>
   </si>
   <si>
+    <t>N_pre_C_1_1</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -141,9 +150,6 @@
     <t>p_max_mpa_g</t>
   </si>
   <si>
-    <t>Supply compressor from_node</t>
-  </si>
-  <si>
     <t>compressor_name</t>
   </si>
   <si>
@@ -162,9 +168,6 @@
     <t>eta_driver</t>
   </si>
   <si>
-    <t>Supply compressor</t>
-  </si>
-  <si>
     <t>C_0_0</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t>C_1_0</t>
+  </si>
+  <si>
+    <t>C_1_1</t>
   </si>
   <si>
     <t>CS2</t>
@@ -568,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -605,10 +611,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>641.35</v>
@@ -623,7 +629,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -631,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>641.35</v>
@@ -649,7 +655,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -657,10 +663,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>641.35</v>
@@ -675,7 +681,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -683,10 +689,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>641.35</v>
@@ -701,7 +707,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -709,16 +715,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>33.5</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -727,7 +733,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -735,16 +741,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -753,7 +759,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -761,16 +767,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>6.666666666666671</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -779,7 +785,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -787,16 +793,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>43.33333333333333</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -805,7 +811,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -813,10 +819,10 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>641.35</v>
@@ -831,7 +837,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -839,10 +845,10 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>641.35</v>
@@ -857,7 +863,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -865,10 +871,10 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>641.35</v>
@@ -883,7 +889,33 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>641.35</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>0.012</v>
+      </c>
+      <c r="G13">
+        <v>9.525</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -893,7 +925,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -901,15 +933,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>8.758481331682836</v>
@@ -917,7 +949,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>8.758481331682836</v>
@@ -925,7 +957,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>8.758481331682836</v>
@@ -933,7 +965,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>8.758481331682836</v>
@@ -941,7 +973,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>8.758481331682836</v>
@@ -949,7 +981,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>8.758481331682836</v>
@@ -957,7 +989,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>8.758481331682836</v>
@@ -965,7 +997,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>8.758481331682836</v>
@@ -973,7 +1005,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>8.758481331682836</v>
@@ -981,7 +1013,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>8.758481331682836</v>
@@ -989,7 +1021,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>8.758481331682836</v>
@@ -997,7 +1029,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>8.758481331682836</v>
@@ -1005,7 +1037,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>8.758481331682836</v>
@@ -1013,7 +1045,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>8.758481331682836</v>
@@ -1021,7 +1053,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>8.758481331682836</v>
@@ -1029,7 +1061,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>8.758481331682836</v>
@@ -1037,7 +1069,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>8.758481331682836</v>
@@ -1045,7 +1077,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>8.758481331682836</v>
@@ -1053,9 +1085,17 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
         <v>8.758481331682836</v>
       </c>
     </row>
@@ -1074,7 +1114,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1083,30 +1123,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>8.758481331682836</v>
@@ -1126,19 +1166,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>8.758481331682836</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -1152,19 +1192,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>8.758481331682836</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1178,13 +1218,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>8.758481331682836</v>
@@ -1204,13 +1244,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>8.758481331682836</v>
@@ -1230,13 +1270,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>8.758481331682836</v>
@@ -1256,13 +1296,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>8.758481331682836</v>
@@ -1295,24 +1335,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>8.699999999999999</v>
@@ -1333,21 +1373,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1355,10 +1395,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1366,10 +1406,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1390,15 +1430,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1406,7 +1446,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/examples/wangetal2018/out/NetworkFiles/AC_1.0_b_network_design.xlsx
+++ b/examples/wangetal2018/out/NetworkFiles/AC_1.0_b_network_design.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="98">
   <si>
     <t>pipe_name</t>
   </si>
@@ -45,76 +45,172 @@
     <t>steel_grade</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01_pre_C_0_0</t>
   </si>
   <si>
     <t>PI01_remaining</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_0</t>
-  </si>
-  <si>
-    <t>PI04_remaining</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_1</t>
-  </si>
-  <si>
-    <t>PI05_remaining</t>
+    <t>PI04_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
+    <t>PI04</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_1</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
+    <t>PI05</t>
+  </si>
+  <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
   </si>
   <si>
     <t>PI06</t>
   </si>
   <si>
-    <t>PI07_remaining</t>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
   </si>
   <si>
     <t>PI08</t>
   </si>
   <si>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1</t>
+  </si>
+  <si>
     <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_0</t>
   </si>
   <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
+  </si>
+  <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N09_1</t>
   </si>
   <si>
     <t>N_pre_C_0_0</t>
@@ -574,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -611,16 +707,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>641.35</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F2">
         <v>0.012</v>
@@ -629,7 +725,7 @@
         <v>9.525</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -637,16 +733,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>641.35</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="F3">
         <v>0.012</v>
@@ -655,7 +751,7 @@
         <v>9.525</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -663,16 +759,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>641.35</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="F4">
         <v>0.012</v>
@@ -681,7 +777,7 @@
         <v>9.525</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -689,16 +785,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>641.35</v>
       </c>
       <c r="E5">
-        <v>31.5</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0.012</v>
@@ -707,7 +803,7 @@
         <v>9.525</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -715,16 +811,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>641.35</v>
       </c>
       <c r="E6">
-        <v>11.83333333333334</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>0.012</v>
@@ -733,7 +829,7 @@
         <v>9.525</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -741,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>641.35</v>
       </c>
       <c r="E7">
-        <v>36.66666666666666</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>0.012</v>
@@ -759,7 +855,7 @@
         <v>9.525</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -767,16 +863,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>641.35</v>
       </c>
       <c r="E8">
-        <v>6.666666666666671</v>
+        <v>15.75</v>
       </c>
       <c r="F8">
         <v>0.012</v>
@@ -785,7 +881,7 @@
         <v>9.525</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -793,16 +889,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>641.35</v>
       </c>
       <c r="E9">
-        <v>43.33333333333333</v>
+        <v>15.75</v>
       </c>
       <c r="F9">
         <v>0.012</v>
@@ -811,7 +907,7 @@
         <v>9.525</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -819,16 +915,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D10">
         <v>641.35</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>11.83333333333334</v>
       </c>
       <c r="F10">
         <v>0.012</v>
@@ -837,7 +933,7 @@
         <v>9.525</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -845,16 +941,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>641.35</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>4.333333333333329</v>
       </c>
       <c r="F11">
         <v>0.012</v>
@@ -863,7 +959,7 @@
         <v>9.525</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -871,16 +967,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>641.35</v>
       </c>
       <c r="E12">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="F12">
         <v>0.012</v>
@@ -889,7 +985,7 @@
         <v>9.525</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -897,25 +993,441 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>641.35</v>
+      </c>
+      <c r="E13">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="F13">
+        <v>0.012</v>
+      </c>
+      <c r="G13">
+        <v>9.525</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>641.35</v>
+      </c>
+      <c r="E14">
+        <v>6.666666666666671</v>
+      </c>
+      <c r="F14">
+        <v>0.012</v>
+      </c>
+      <c r="G14">
+        <v>9.525</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>641.35</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>0.012</v>
+      </c>
+      <c r="G15">
+        <v>9.525</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>641.35</v>
+      </c>
+      <c r="E16">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F16">
+        <v>0.012</v>
+      </c>
+      <c r="G16">
+        <v>9.525</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17">
+        <v>641.35</v>
+      </c>
+      <c r="E17">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F17">
+        <v>0.012</v>
+      </c>
+      <c r="G17">
+        <v>9.525</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>641.35</v>
+      </c>
+      <c r="E18">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F18">
+        <v>0.012</v>
+      </c>
+      <c r="G18">
+        <v>9.525</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>641.35</v>
+      </c>
+      <c r="E19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F19">
+        <v>0.012</v>
+      </c>
+      <c r="G19">
+        <v>9.525</v>
+      </c>
+      <c r="H19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>641.35</v>
+      </c>
+      <c r="E20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F20">
+        <v>0.012</v>
+      </c>
+      <c r="G20">
+        <v>9.525</v>
+      </c>
+      <c r="H20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>641.35</v>
+      </c>
+      <c r="E21">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="F21">
+        <v>0.012</v>
+      </c>
+      <c r="G21">
+        <v>9.525</v>
+      </c>
+      <c r="H21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>641.35</v>
+      </c>
+      <c r="E22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F22">
+        <v>0.012</v>
+      </c>
+      <c r="G22">
+        <v>9.525</v>
+      </c>
+      <c r="H22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>641.35</v>
+      </c>
+      <c r="E23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F23">
+        <v>0.012</v>
+      </c>
+      <c r="G23">
+        <v>9.525</v>
+      </c>
+      <c r="H23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>641.35</v>
+      </c>
+      <c r="E24">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F24">
+        <v>0.012</v>
+      </c>
+      <c r="G24">
+        <v>9.525</v>
+      </c>
+      <c r="H24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13">
-        <v>641.35</v>
-      </c>
-      <c r="E13">
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <v>0.012</v>
-      </c>
-      <c r="G13">
-        <v>9.525</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25">
+        <v>641.35</v>
+      </c>
+      <c r="E25">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F25">
+        <v>0.012</v>
+      </c>
+      <c r="G25">
+        <v>9.525</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>641.35</v>
+      </c>
+      <c r="E26">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F26">
+        <v>0.012</v>
+      </c>
+      <c r="G26">
+        <v>9.525</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>641.35</v>
+      </c>
+      <c r="E27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F27">
+        <v>0.012</v>
+      </c>
+      <c r="G27">
+        <v>9.525</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>641.35</v>
+      </c>
+      <c r="E28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F28">
+        <v>0.012</v>
+      </c>
+      <c r="G28">
+        <v>9.525</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>641.35</v>
+      </c>
+      <c r="E29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="F29">
+        <v>0.012</v>
+      </c>
+      <c r="G29">
+        <v>9.525</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -933,15 +1445,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>8.758481331682836</v>
@@ -949,7 +1461,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>8.758481331682836</v>
@@ -957,7 +1469,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>8.758481331682836</v>
@@ -965,7 +1477,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>8.758481331682836</v>
@@ -973,7 +1485,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>8.758481331682836</v>
@@ -981,7 +1493,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>8.758481331682836</v>
@@ -989,7 +1501,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>8.758481331682836</v>
@@ -997,7 +1509,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>8.758481331682836</v>
@@ -1005,7 +1517,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>8.758481331682836</v>
@@ -1013,7 +1525,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>8.758481331682836</v>
@@ -1021,7 +1533,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B12">
         <v>8.758481331682836</v>
@@ -1029,7 +1541,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>8.758481331682836</v>
@@ -1037,7 +1549,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>8.758481331682836</v>
@@ -1045,7 +1557,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>8.758481331682836</v>
@@ -1053,7 +1565,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>8.758481331682836</v>
@@ -1061,7 +1573,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>8.758481331682836</v>
@@ -1069,7 +1581,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>8.758481331682836</v>
@@ -1077,7 +1589,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B19">
         <v>8.758481331682836</v>
@@ -1085,7 +1597,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>8.758481331682836</v>
@@ -1093,9 +1605,137 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B21">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>8.758481331682836</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
         <v>8.758481331682836</v>
       </c>
     </row>
@@ -1114,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1123,30 +1763,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>8.758481331682836</v>
@@ -1166,13 +1806,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>8.758481331682836</v>
@@ -1192,13 +1832,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>8.758481331682836</v>
@@ -1218,13 +1858,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>8.758481331682836</v>
@@ -1244,13 +1884,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>8.758481331682836</v>
@@ -1270,13 +1910,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>8.758481331682836</v>
@@ -1296,13 +1936,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>8.758481331682836</v>
@@ -1335,24 +1975,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C2">
         <v>8.699999999999999</v>
@@ -1373,21 +2013,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1150.5204</v>
@@ -1395,10 +2035,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>2991.353</v>
@@ -1406,10 +2046,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>2301.0408</v>
@@ -1430,15 +2070,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1446,7 +2086,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>1</v>
